--- a/src/main/resources/excel/monster/monsterSkill.xlsx
+++ b/src/main/resources/excel/monster/monsterSkill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEAC806-A3AB-4A25-AD2F-0D1D5080509D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF84A26-CE50-406F-B9E0-6662384FEEAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="2640" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -391,6 +391,17 @@
         <v>100</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excel/monster/monsterSkill.xlsx
+++ b/src/main/resources/excel/monster/monsterSkill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF84A26-CE50-406F-B9E0-6662384FEEAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3372732-5666-4A7D-A1E6-CFB4118C8FE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8976" yWindow="3396" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -393,12 +393,23 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>100</v>
       </c>
     </row>

--- a/src/main/resources/excel/monster/monsterSkill.xlsx
+++ b/src/main/resources/excel/monster/monsterSkill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3372732-5666-4A7D-A1E6-CFB4118C8FE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2867C7-3474-48EB-887D-934377FB038D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8976" yWindow="3396" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9912" yWindow="2580" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,7 +364,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -388,7 +388,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -399,7 +399,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -410,7 +410,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/monster/monsterSkill.xlsx
+++ b/src/main/resources/excel/monster/monsterSkill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2867C7-3474-48EB-887D-934377FB038D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC0C4D5-6316-426D-BF33-2D30E964214C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9912" yWindow="2580" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="1392" windowWidth="19008" windowHeight="10164" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -413,6 +413,17 @@
         <v>201</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>202</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
